--- a/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con más de 1 persona</t>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>89,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>89,05%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>92,85%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>92,84%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>94,18%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,9; 97,03</t>
+          <t>87,72; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,69; 97,29</t>
+          <t>87,7; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,81; 97,2</t>
+          <t>88,69; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,87; 97,0</t>
+          <t>87,49; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,18; 92,63</t>
+          <t>87,11; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,71; 93,06</t>
+          <t>79,15; 96,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,03; 93,69</t>
+          <t>78,11; 96,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,26; 94,14</t>
+          <t>78,23; 96,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,93; 93,49</t>
+          <t>77,16; 96,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>85,78; 94,11</t>
+          <t>80,9; 97,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>86,17; 94,26</t>
+          <t>85,21; 96,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,71; 94,35</t>
+          <t>85,16; 96,72</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>85,64; 96,93</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>85,45; 96,83</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>87,13; 97,81</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>93,95%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>94,05%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>94,29%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>90,24%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,9; 96,54</t>
+          <t>92,95; 98,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,78; 96,16</t>
+          <t>91,33; 98,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,35; 96,37</t>
+          <t>91,5; 98,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,89; 96,6</t>
+          <t>91,69; 98,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,83; 94,94</t>
+          <t>88,07; 96,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,99; 96,65</t>
+          <t>86,97; 94,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,32; 96,78</t>
+          <t>87,54; 95,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,5; 97,16</t>
+          <t>87,7; 95,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,95; 94,81</t>
+          <t>87,48; 95,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>92,05; 95,86</t>
+          <t>81,21; 91,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,37; 96,01</t>
+          <t>91,47; 96,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>92,82; 96,31</t>
+          <t>91,07; 96,18</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>91,24; 96,16</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>91,54; 96,42</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>86,71; 93,24</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>89,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>86,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>87,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>96,52%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>94,14%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>92,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>93,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>94,5%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>93,56%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>94,79%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>94,57%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>92,73%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>93,83%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>91,92%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>89,89%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>90,96%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,61; 95,99</t>
+          <t>80,72; 96,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,64; 96,02</t>
+          <t>78,42; 95,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,81; 94,91</t>
+          <t>76,49; 95,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,88; 93,86</t>
+          <t>76,43; 92,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,11; 98,54</t>
+          <t>78,61; 93,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,78; 98,33</t>
+          <t>94,03; 98,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,06; 96,91</t>
+          <t>92,83; 98,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,79; 96,27</t>
+          <t>89,23; 97,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,29; 96,78</t>
+          <t>87,22; 95,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>90,81; 96,72</t>
+          <t>88,44; 96,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,05; 95,1</t>
+          <t>89,51; 97,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>88,05; 94,22</t>
+          <t>87,58; 96,66</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>85,53; 94,98</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>84,04; 93,51</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>85,8; 94,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,78; 95,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,11; 94,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,43; 94,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,97; 94,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,18; 95,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,64; 95,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,44; 95,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,27; 94,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,04; 95,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,63; 94,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,41; 94,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>94,51%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>93,78%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>93,43%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>92,89%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>91,76%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>93,86%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>93,72%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>92,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90,69%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>94,16%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93,75%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>93,09%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>92,43%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>91,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>90,34; 96,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>89,39; 96,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88,6; 96,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>89,01; 95,61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87,91; 94,68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>91,22; 95,75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>91,09; 95,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>89,85; 94,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>88,72; 94,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>87,02; 93,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>92,02; 95,8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>91,5; 95,5</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>90,56; 95,07</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>90,09; 94,27</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>88,83; 93,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>99213</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124106</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>101952</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>110237</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>171650</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>106074</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>127862</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>103796</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>109342</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>197169</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>205288</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>251966</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>205749</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>219578</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>368820</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>90660; 103347</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>113036; 128885</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>93529; 105459</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>99856; 114134</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>154732; 177635</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>93242; 113728</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>111289; 137640</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>90355; 111346</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>94439; 117943</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>173111; 209676</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>188452; 213873</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>231098; 262459</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>189229; 214181</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>202108; 229023</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>341214; 383021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>354543</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>408737</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>358325</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>381468</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>480210</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>358754</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>428979</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>352123</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>347256</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>432461</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>713296</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>837715</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>710448</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>728723</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>912671</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>340189; 361817</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>390130; 419597</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>342654; 367975</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>364603; 390933</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>455062; 497770</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>339716; 371078</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>406615; 444194</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>334056; 363960</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>328226; 358815</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>401715; 454056</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>692134; 729293</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>812035; 857624</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>689187; 726380</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>707447; 745216</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>877018; 943061</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>260078</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>300795</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>249971</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>239466</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>307237</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>349945</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>413491</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>324453</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>302402</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>375346</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>610022</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>714286</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>574425</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>541868</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>682583</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>230797; 275007</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>261048; 319029</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>214352; 266682</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>210484; 255188</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>275792; 326736</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>338132; 355818</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>397695; 423081</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>307540; 334542</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>285581; 314083</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>353366; 386847</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>577790; 626621</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>666756; 735847</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>534492; 593542</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>506630; 563673</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>643842; 707255</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>670.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>667.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>661.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>649.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>713833</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>833637</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>710249</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>731170</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>959097</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>814773</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>970331</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>780373</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>758999</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1004976</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1528606</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1803968</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1490622</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1490170</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1964074</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>682331; 731276</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>794602; 856491</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>673502; 730817</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>700624; 752615</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>918808; 989624</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>791850; 831142</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>943128; 991182</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>755649; 798470</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>731980; 778136</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>964320; 1035028</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1493870; 1555079</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1760692; 1837774</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1450087; 1522219</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1452378; 1519778</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1912773; 2007133</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
